--- a/tietokanta/feats_class/feats_class.xlsx
+++ b/tietokanta/feats_class/feats_class.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\feats_class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8001045E-2498-4D60-8B6F-0A95CCCADAA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E906C6-722C-4F40-888B-D6373D91094E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="2625" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="125">
   <si>
     <t>Alchemist</t>
   </si>
@@ -382,6 +382,24 @@
   </si>
   <si>
     <t>Quaking Stomp</t>
+  </si>
+  <si>
+    <t>Bardic Lore</t>
+  </si>
+  <si>
+    <t>Lingering</t>
+  </si>
+  <si>
+    <t>Enigma Muse</t>
+  </si>
+  <si>
+    <t>Maestro Muse</t>
+  </si>
+  <si>
+    <t>Polymath Muse</t>
+  </si>
+  <si>
+    <t>Meastro Muse|||focus pool</t>
   </si>
 </sst>
 </file>
@@ -699,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,6 +1934,67 @@
         <v>20</v>
       </c>
     </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tietokanta/feats_class/feats_class.xlsx
+++ b/tietokanta/feats_class/feats_class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\feats_class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E906C6-722C-4F40-888B-D6373D91094E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604D5759-1A24-437B-919B-CD094BC4F170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="2625" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>

--- a/tietokanta/feats_class/feats_class.xlsx
+++ b/tietokanta/feats_class/feats_class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\feats_class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604D5759-1A24-437B-919B-CD094BC4F170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DA5D1F-D48E-4147-9C3F-5258FAF26049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="690">
   <si>
     <t>Alchemist</t>
   </si>
@@ -387,9 +387,6 @@
     <t>Bardic Lore</t>
   </si>
   <si>
-    <t>Lingering</t>
-  </si>
-  <si>
     <t>Enigma Muse</t>
   </si>
   <si>
@@ -400,6 +397,1704 @@
   </si>
   <si>
     <t>Meastro Muse|||focus pool</t>
+  </si>
+  <si>
+    <t>Lingering Composition</t>
+  </si>
+  <si>
+    <t>Reach Spell</t>
+  </si>
+  <si>
+    <t>Versatile Performance</t>
+  </si>
+  <si>
+    <t>Cantrip Expansion</t>
+  </si>
+  <si>
+    <t>Esoteric Polymath</t>
+  </si>
+  <si>
+    <t>Inspire Competence</t>
+  </si>
+  <si>
+    <t>Meastro Muse</t>
+  </si>
+  <si>
+    <t>Loremaster's Etude</t>
+  </si>
+  <si>
+    <t>Enigma Muse|||focus pool</t>
+  </si>
+  <si>
+    <t>Multifarious Muse</t>
+  </si>
+  <si>
+    <t>Inspire Defense</t>
+  </si>
+  <si>
+    <t>Melodious Spell</t>
+  </si>
+  <si>
+    <t>Triple Spell</t>
+  </si>
+  <si>
+    <t>Versatile Signature</t>
+  </si>
+  <si>
+    <t>Dirge of Doom</t>
+  </si>
+  <si>
+    <t>Harmonize</t>
+  </si>
+  <si>
+    <t>Steady Spellcasting</t>
+  </si>
+  <si>
+    <t>Eclectic Skill</t>
+  </si>
+  <si>
+    <t>Polymath Muse|||Occultism||Master</t>
+  </si>
+  <si>
+    <t>Inspire Heroics</t>
+  </si>
+  <si>
+    <t>Maestro Musse|||focus pool</t>
+  </si>
+  <si>
+    <t>Know It All</t>
+  </si>
+  <si>
+    <t>House of Imaginary Walls</t>
+  </si>
+  <si>
+    <t>Quickened Casting</t>
+  </si>
+  <si>
+    <t>Unusual Composition</t>
+  </si>
+  <si>
+    <t>Inspirational Focus</t>
+  </si>
+  <si>
+    <t>Allegro</t>
+  </si>
+  <si>
+    <t>Soothing Ballad</t>
+  </si>
+  <si>
+    <t>True Hypercognition</t>
+  </si>
+  <si>
+    <t>Effortless Concentration</t>
+  </si>
+  <si>
+    <t>Studious Capacity</t>
+  </si>
+  <si>
+    <t>Enigma Muse|||Occultism||Legendary</t>
+  </si>
+  <si>
+    <t>Deep Lore</t>
+  </si>
+  <si>
+    <t>Eternal Composition</t>
+  </si>
+  <si>
+    <t>Impossible Polymath</t>
+  </si>
+  <si>
+    <t>Arcana||Trained||||Nature||Trained||||Religion||Trained|||Esoteric Polymath</t>
+  </si>
+  <si>
+    <t>And with or?</t>
+  </si>
+  <si>
+    <t>Fatal Aria</t>
+  </si>
+  <si>
+    <t>focus pool</t>
+  </si>
+  <si>
+    <t>Perfect Encore</t>
+  </si>
+  <si>
+    <t>Magnum Opus</t>
+  </si>
+  <si>
+    <t>Symphony of the Muse</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Paladin</t>
+  </si>
+  <si>
+    <t>Lawful Good</t>
+  </si>
+  <si>
+    <t>Redeemer</t>
+  </si>
+  <si>
+    <t>Neutral Good</t>
+  </si>
+  <si>
+    <t>Liberator</t>
+  </si>
+  <si>
+    <t>Chaotic Good</t>
+  </si>
+  <si>
+    <t>Deity's Domain</t>
+  </si>
+  <si>
+    <t>Ranged Reprisal</t>
+  </si>
+  <si>
+    <t>Unimpeded Step</t>
+  </si>
+  <si>
+    <t>Weight of Guilt</t>
+  </si>
+  <si>
+    <t>Divine Grace</t>
+  </si>
+  <si>
+    <t>Dragonslayer Oath</t>
+  </si>
+  <si>
+    <t>Fiendsbane Oath</t>
+  </si>
+  <si>
+    <t>Shining Oath</t>
+  </si>
+  <si>
+    <t>Vengeful Oath</t>
+  </si>
+  <si>
+    <t>Aura of Courage</t>
+  </si>
+  <si>
+    <t>Divine Health</t>
+  </si>
+  <si>
+    <t>tenets</t>
+  </si>
+  <si>
+    <t>Mercy</t>
+  </si>
+  <si>
+    <t>Devotion Spell (lay on hands)</t>
+  </si>
+  <si>
+    <t>Litany Against Wrath</t>
+  </si>
+  <si>
+    <t>Devotion Spell</t>
+  </si>
+  <si>
+    <t>Shield Warden</t>
+  </si>
+  <si>
+    <t>Smite Evil</t>
+  </si>
+  <si>
+    <t>Divine Ally (blade)</t>
+  </si>
+  <si>
+    <t>Divine Ally (shield)</t>
+  </si>
+  <si>
+    <t>Divine Ally (steed)</t>
+  </si>
+  <si>
+    <t>Advanced Deity's Domain</t>
+  </si>
+  <si>
+    <t>Greater Mercy</t>
+  </si>
+  <si>
+    <t>Heal Mount</t>
+  </si>
+  <si>
+    <t>Quick Block</t>
+  </si>
+  <si>
+    <t>Second Ally</t>
+  </si>
+  <si>
+    <t>Divine Ally</t>
+  </si>
+  <si>
+    <t>Sense Evil</t>
+  </si>
+  <si>
+    <t>Devoted Focus</t>
+  </si>
+  <si>
+    <t>Imposing Destrier</t>
+  </si>
+  <si>
+    <t>Litany Against Sloth</t>
+  </si>
+  <si>
+    <t>Radiant Blade Spirit</t>
+  </si>
+  <si>
+    <t>Shield of Reckoning</t>
+  </si>
+  <si>
+    <t>Devotion Spell|||tenets</t>
+  </si>
+  <si>
+    <t>Champion's Reaction|||Divine Ally (shield)|||tenets|||Shield Warden</t>
+  </si>
+  <si>
+    <t>Affliction Mercy</t>
+  </si>
+  <si>
+    <t>Aura of Faith</t>
+  </si>
+  <si>
+    <t>Blade of Justice</t>
+  </si>
+  <si>
+    <t>Champion's Sacrifice</t>
+  </si>
+  <si>
+    <t>Divine Wall</t>
+  </si>
+  <si>
+    <t>Lasting Doubt</t>
+  </si>
+  <si>
+    <t>Liberating Stride</t>
+  </si>
+  <si>
+    <t>Anchoring Aura</t>
+  </si>
+  <si>
+    <t>Aura of Life</t>
+  </si>
+  <si>
+    <t>Aura of Righteousness</t>
+  </si>
+  <si>
+    <t>Aura of Vengeance</t>
+  </si>
+  <si>
+    <t>exalt|||Vengeful Oath</t>
+  </si>
+  <si>
+    <t>Divine Reflexes</t>
+  </si>
+  <si>
+    <t>Litany of Righteousness</t>
+  </si>
+  <si>
+    <t>Wrymbane Aura</t>
+  </si>
+  <si>
+    <t>Auspicious Mount</t>
+  </si>
+  <si>
+    <t>Divine Ally (steed)|||Imposing Destrier</t>
+  </si>
+  <si>
+    <t>Loyal Warhorse</t>
+  </si>
+  <si>
+    <t>Divine Ally (steed)|||Loyal Warhorse</t>
+  </si>
+  <si>
+    <t>Shield of Grace</t>
+  </si>
+  <si>
+    <t>Instrument of Zeal</t>
+  </si>
+  <si>
+    <t>Divine Ally (blade)|||tenets</t>
+  </si>
+  <si>
+    <t>Celestial Form</t>
+  </si>
+  <si>
+    <t>Ultimate Mercy</t>
+  </si>
+  <si>
+    <t>Celestial Mount</t>
+  </si>
+  <si>
+    <t>Divine Ally (steed)|||tenets</t>
+  </si>
+  <si>
+    <t>Radiant Blade Master</t>
+  </si>
+  <si>
+    <t>Divine Ally (blade)|||Radiant Blade Spirit</t>
+  </si>
+  <si>
+    <t>Shield Paragon</t>
+  </si>
+  <si>
+    <t>Warpriest</t>
+  </si>
+  <si>
+    <t>Cloistered Cleric</t>
+  </si>
+  <si>
+    <t>Deadly Simplicity</t>
+  </si>
+  <si>
+    <t>Domain Initiate</t>
+  </si>
+  <si>
+    <t>Harming Hands</t>
+  </si>
+  <si>
+    <t>Healing Hands</t>
+  </si>
+  <si>
+    <t>Healing Font</t>
+  </si>
+  <si>
+    <t>Harmful Font</t>
+  </si>
+  <si>
+    <t>Holy Castigation</t>
+  </si>
+  <si>
+    <t>Communal Healing</t>
+  </si>
+  <si>
+    <t>Emblazon Armament</t>
+  </si>
+  <si>
+    <t>Sap Life</t>
+  </si>
+  <si>
+    <t>Turn Undead</t>
+  </si>
+  <si>
+    <t>Versatile Font</t>
+  </si>
+  <si>
+    <t>Neutral God</t>
+  </si>
+  <si>
+    <t>Channel Smite</t>
+  </si>
+  <si>
+    <t>Command Undead</t>
+  </si>
+  <si>
+    <t>Lawful Good||||Neutral Good||||Chaotic Good</t>
+  </si>
+  <si>
+    <t>Harmful Font|||Lawful Evil||||Neutral Evil||||Chaotic Evil</t>
+  </si>
+  <si>
+    <t>Directed Channel</t>
+  </si>
+  <si>
+    <t>Improved Communal Healing</t>
+  </si>
+  <si>
+    <t>Necrotic Infusion</t>
+  </si>
+  <si>
+    <t>Cast Down</t>
+  </si>
+  <si>
+    <t>Harmful Font||||Healing Font</t>
+  </si>
+  <si>
+    <t>Divine Weapon</t>
+  </si>
+  <si>
+    <t>Selective Energy</t>
+  </si>
+  <si>
+    <t>Advanced Domain</t>
+  </si>
+  <si>
+    <t>Align Armament</t>
+  </si>
+  <si>
+    <t>Deity=!Neutral</t>
+  </si>
+  <si>
+    <t>Channeled Succor</t>
+  </si>
+  <si>
+    <t>Cremate Undead</t>
+  </si>
+  <si>
+    <t>Emblazon Energy</t>
+  </si>
+  <si>
+    <t>Castigating Weapon</t>
+  </si>
+  <si>
+    <t>Heroic Recovery</t>
+  </si>
+  <si>
+    <t>Healing Font|||Lawful Good||||Neutral Good||||Chaotic Good</t>
+  </si>
+  <si>
+    <t>Improved Command Undead</t>
+  </si>
+  <si>
+    <t>Replenishment of War</t>
+  </si>
+  <si>
+    <t>Defensive Recovery</t>
+  </si>
+  <si>
+    <t>Healing Font||||Harmful Font</t>
+  </si>
+  <si>
+    <t>Domain Focus</t>
+  </si>
+  <si>
+    <t>Emblazon Antimagic</t>
+  </si>
+  <si>
+    <t>Shared Replenishment</t>
+  </si>
+  <si>
+    <t>Deity's Protection</t>
+  </si>
+  <si>
+    <t>Extend Armament Alignment</t>
+  </si>
+  <si>
+    <t>Fast Channel</t>
+  </si>
+  <si>
+    <t>Swift Banishment</t>
+  </si>
+  <si>
+    <t>Eternal Bane</t>
+  </si>
+  <si>
+    <t>Lawful Evil||||Neutral Evil||||Chaotic Evil</t>
+  </si>
+  <si>
+    <t>Eternal Blessing</t>
+  </si>
+  <si>
+    <t>Resurrectionist</t>
+  </si>
+  <si>
+    <t>Domain Wellspring</t>
+  </si>
+  <si>
+    <t>Echoing Channel</t>
+  </si>
+  <si>
+    <t>Improved Switft Banishment</t>
+  </si>
+  <si>
+    <t>Avatars Audience</t>
+  </si>
+  <si>
+    <t>Makers of Miracles</t>
+  </si>
+  <si>
+    <t>Miraculous Spell</t>
+  </si>
+  <si>
+    <t>Metamagic Channel</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Leaf</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>Wild</t>
+  </si>
+  <si>
+    <t>Animal Companion</t>
+  </si>
+  <si>
+    <t>Animal Order</t>
+  </si>
+  <si>
+    <t>Leshy Familiar</t>
+  </si>
+  <si>
+    <t>Leaf Order</t>
+  </si>
+  <si>
+    <t>Storm Born</t>
+  </si>
+  <si>
+    <t>Storm Order</t>
+  </si>
+  <si>
+    <t>Widen Spell</t>
+  </si>
+  <si>
+    <t>Wild Shape</t>
+  </si>
+  <si>
+    <t>Wild Order</t>
+  </si>
+  <si>
+    <t>Call of the Wild</t>
+  </si>
+  <si>
+    <t>Enhanced Familiar</t>
+  </si>
+  <si>
+    <t>a familiar</t>
+  </si>
+  <si>
+    <t>Order Explorer</t>
+  </si>
+  <si>
+    <t>Form Control</t>
+  </si>
+  <si>
+    <t>str|14|||Wild Shape</t>
+  </si>
+  <si>
+    <t>Mature Animal Companion</t>
+  </si>
+  <si>
+    <t>Order Magic</t>
+  </si>
+  <si>
+    <t>Thousand Faces</t>
+  </si>
+  <si>
+    <t>Woodland Strike</t>
+  </si>
+  <si>
+    <t>Green Empathy</t>
+  </si>
+  <si>
+    <t>Insect Shape</t>
+  </si>
+  <si>
+    <t>Storm Retribution</t>
+  </si>
+  <si>
+    <t>Ferocious Shape</t>
+  </si>
+  <si>
+    <t>Fey Caller</t>
+  </si>
+  <si>
+    <t>Incredible Companion</t>
+  </si>
+  <si>
+    <t>Soaring Shape</t>
+  </si>
+  <si>
+    <t>Wind Caller</t>
+  </si>
+  <si>
+    <t>Elemental Shape</t>
+  </si>
+  <si>
+    <t>Healing Transformation</t>
+  </si>
+  <si>
+    <t>Overwhelming Energy</t>
+  </si>
+  <si>
+    <t>Plant Shape</t>
+  </si>
+  <si>
+    <t>Leaf Order||||Wild Shape</t>
+  </si>
+  <si>
+    <t>Side by Side</t>
+  </si>
+  <si>
+    <t>Dragon Shape</t>
+  </si>
+  <si>
+    <t>Green Tongue</t>
+  </si>
+  <si>
+    <t>Primal Focus</t>
+  </si>
+  <si>
+    <t>Primal Summons</t>
+  </si>
+  <si>
+    <t>Specialized Companion</t>
+  </si>
+  <si>
+    <t>Timeless Nature</t>
+  </si>
+  <si>
+    <t>Verdant Metamorphosis</t>
+  </si>
+  <si>
+    <t>Impaling Briars</t>
+  </si>
+  <si>
+    <t>Monstrosity Shape</t>
+  </si>
+  <si>
+    <t>Invoke Disaster</t>
+  </si>
+  <si>
+    <t>Perfect Form Control</t>
+  </si>
+  <si>
+    <t>str|18|||Form Control</t>
+  </si>
+  <si>
+    <t>Primal Wellspring</t>
+  </si>
+  <si>
+    <t>Wild Focus</t>
+  </si>
+  <si>
+    <t>Hierophant's Power</t>
+  </si>
+  <si>
+    <t>Nature||Legendary</t>
+  </si>
+  <si>
+    <t>Leyline Conduit</t>
+  </si>
+  <si>
+    <t>True Shapeshifter</t>
+  </si>
+  <si>
+    <t>Dragon Shape||||Wild Shape</t>
+  </si>
+  <si>
+    <t>Double Slice</t>
+  </si>
+  <si>
+    <t>Exacting Strike</t>
+  </si>
+  <si>
+    <t>Point-Blank Shot</t>
+  </si>
+  <si>
+    <t>Power Attack</t>
+  </si>
+  <si>
+    <t>Reactive Shield</t>
+  </si>
+  <si>
+    <t>Snagging Strike</t>
+  </si>
+  <si>
+    <t>Aggressive Block</t>
+  </si>
+  <si>
+    <t>Assisting Shot</t>
+  </si>
+  <si>
+    <t>Brutish Shove</t>
+  </si>
+  <si>
+    <t>Combat Grab</t>
+  </si>
+  <si>
+    <t>Dueling Parry</t>
+  </si>
+  <si>
+    <t>Intimidating Strike</t>
+  </si>
+  <si>
+    <t>Lunge</t>
+  </si>
+  <si>
+    <t>Double Shot</t>
+  </si>
+  <si>
+    <t>Dual-Handed Assault</t>
+  </si>
+  <si>
+    <t>Knockdown</t>
+  </si>
+  <si>
+    <t>Powerful Shove</t>
+  </si>
+  <si>
+    <t>Quick Reversal</t>
+  </si>
+  <si>
+    <t>Shielded Stride</t>
+  </si>
+  <si>
+    <t>Twin Parry</t>
+  </si>
+  <si>
+    <t>Advanced Weapon Training</t>
+  </si>
+  <si>
+    <t>Advantageous Assault</t>
+  </si>
+  <si>
+    <t>Disarming Stance</t>
+  </si>
+  <si>
+    <t>Furious Focus</t>
+  </si>
+  <si>
+    <t>Athletics||Trained</t>
+  </si>
+  <si>
+    <t>Guardian's Deflection</t>
+  </si>
+  <si>
+    <t>Reflexive Shield</t>
+  </si>
+  <si>
+    <t>Revealing Stab</t>
+  </si>
+  <si>
+    <t>Shatter Defenses</t>
+  </si>
+  <si>
+    <t>Shield Block</t>
+  </si>
+  <si>
+    <t>Triple Shot</t>
+  </si>
+  <si>
+    <t>Blind-Fight</t>
+  </si>
+  <si>
+    <t>Perception||Master</t>
+  </si>
+  <si>
+    <t>Dueling Riposte</t>
+  </si>
+  <si>
+    <t>Felling Strike</t>
+  </si>
+  <si>
+    <t>Incredible Aim</t>
+  </si>
+  <si>
+    <t>Mobile Shot Stance</t>
+  </si>
+  <si>
+    <t>Positioning Assault</t>
+  </si>
+  <si>
+    <t>Quick Shield Block</t>
+  </si>
+  <si>
+    <t>Shield Block|||Reactive Shield</t>
+  </si>
+  <si>
+    <t>Agile Grace</t>
+  </si>
+  <si>
+    <t>Certain Strike</t>
+  </si>
+  <si>
+    <t>Combat Reflexes</t>
+  </si>
+  <si>
+    <t>Debilitating Shot</t>
+  </si>
+  <si>
+    <t>Disarming Twist</t>
+  </si>
+  <si>
+    <t>Disruptive Stance</t>
+  </si>
+  <si>
+    <t>Fearsome Brute</t>
+  </si>
+  <si>
+    <t>Improved Knockdown</t>
+  </si>
+  <si>
+    <t>Mirror Shield</t>
+  </si>
+  <si>
+    <t>Twin Riposte</t>
+  </si>
+  <si>
+    <t>Brutal Finish</t>
+  </si>
+  <si>
+    <t>Dueling Dance</t>
+  </si>
+  <si>
+    <t>Flinging Shove</t>
+  </si>
+  <si>
+    <t>Aggressive Block||||Brutish Shove</t>
+  </si>
+  <si>
+    <t>Improved Dueling Riposte</t>
+  </si>
+  <si>
+    <t>Incredible Ricochet</t>
+  </si>
+  <si>
+    <t>Lunging Stance</t>
+  </si>
+  <si>
+    <t>Attack of Opportunity||||Lunge</t>
+  </si>
+  <si>
+    <t>Paragon's Guard</t>
+  </si>
+  <si>
+    <t>Spring Attack</t>
+  </si>
+  <si>
+    <t>Desperate Finisher</t>
+  </si>
+  <si>
+    <t>Determination</t>
+  </si>
+  <si>
+    <t>Guiding Finish</t>
+  </si>
+  <si>
+    <t>Guiding Riposte</t>
+  </si>
+  <si>
+    <t>Stance Savant</t>
+  </si>
+  <si>
+    <t>Two-Weapon Flurry</t>
+  </si>
+  <si>
+    <t>Graceful Poise</t>
+  </si>
+  <si>
+    <t>Improved Reflexive Shield</t>
+  </si>
+  <si>
+    <t>Multishot Stance</t>
+  </si>
+  <si>
+    <t>Twinned Defense</t>
+  </si>
+  <si>
+    <t>Impossible Volley</t>
+  </si>
+  <si>
+    <t>Savage</t>
+  </si>
+  <si>
+    <t>Boundless Reprisals</t>
+  </si>
+  <si>
+    <t>Weapon Supremacy</t>
+  </si>
+  <si>
+    <t>Crane Stance</t>
+  </si>
+  <si>
+    <t>Dragon Stance</t>
+  </si>
+  <si>
+    <t>Ki Rush</t>
+  </si>
+  <si>
+    <t>Ki Strike</t>
+  </si>
+  <si>
+    <t>Monastic Weaponry</t>
+  </si>
+  <si>
+    <t>Mountain Stance</t>
+  </si>
+  <si>
+    <t>Tiger Stance</t>
+  </si>
+  <si>
+    <t>Wolf Stance</t>
+  </si>
+  <si>
+    <t>Brawling Focus</t>
+  </si>
+  <si>
+    <t>Crushing Grab</t>
+  </si>
+  <si>
+    <t>Dancing Leaf</t>
+  </si>
+  <si>
+    <t>Elemental Fist</t>
+  </si>
+  <si>
+    <t>Stunning Fist</t>
+  </si>
+  <si>
+    <t>Flurry of Blows</t>
+  </si>
+  <si>
+    <t>Deflect Arrow</t>
+  </si>
+  <si>
+    <t>Flurry of Maneuvers</t>
+  </si>
+  <si>
+    <t>Flying Kicks</t>
+  </si>
+  <si>
+    <t>Guarded Movement</t>
+  </si>
+  <si>
+    <t>Stand Still</t>
+  </si>
+  <si>
+    <t>Wholeness Body</t>
+  </si>
+  <si>
+    <t>Ki Spells</t>
+  </si>
+  <si>
+    <t>Abundant Step</t>
+  </si>
+  <si>
+    <t>Incredible Movement|||Ki Spells</t>
+  </si>
+  <si>
+    <t>Crane Flutter</t>
+  </si>
+  <si>
+    <t>Dragon Roar</t>
+  </si>
+  <si>
+    <t>Ki Blast</t>
+  </si>
+  <si>
+    <t>Mountain Stronghold</t>
+  </si>
+  <si>
+    <t>Tiger Slash</t>
+  </si>
+  <si>
+    <t>Water Step</t>
+  </si>
+  <si>
+    <t>Whirling Throw</t>
+  </si>
+  <si>
+    <t>Wolf Drag</t>
+  </si>
+  <si>
+    <t>Arrow Snatching</t>
+  </si>
+  <si>
+    <t>Ironblood Stance</t>
+  </si>
+  <si>
+    <t>Mixed Maneuver</t>
+  </si>
+  <si>
+    <t>Tangled Forest Stance</t>
+  </si>
+  <si>
+    <t>Wall Run</t>
+  </si>
+  <si>
+    <t>Wild Winds Initiate</t>
+  </si>
+  <si>
+    <t>Knockback Strike</t>
+  </si>
+  <si>
+    <t>Sleeper Hold</t>
+  </si>
+  <si>
+    <t>Wind Jump</t>
+  </si>
+  <si>
+    <t>Winding Flow</t>
+  </si>
+  <si>
+    <t>Diamond Soul</t>
+  </si>
+  <si>
+    <t>Disrupt Ki</t>
+  </si>
+  <si>
+    <t>Improved Knockback</t>
+  </si>
+  <si>
+    <t>Meditative Focus</t>
+  </si>
+  <si>
+    <t>Ironblood Surge</t>
+  </si>
+  <si>
+    <t>Mountain Quake</t>
+  </si>
+  <si>
+    <t>Tangled Forest Rake</t>
+  </si>
+  <si>
+    <t>Timeless Body</t>
+  </si>
+  <si>
+    <t>Tongue of Sun and Moon</t>
+  </si>
+  <si>
+    <t>Wild Winds Gust</t>
+  </si>
+  <si>
+    <t>Enlightened Presence</t>
+  </si>
+  <si>
+    <t>Master of Many Styles</t>
+  </si>
+  <si>
+    <t>Quivering Palm</t>
+  </si>
+  <si>
+    <t>Shattering Strike</t>
+  </si>
+  <si>
+    <t>Diamond Fists</t>
+  </si>
+  <si>
+    <t>Empty Body</t>
+  </si>
+  <si>
+    <t>Meditative Wellspring</t>
+  </si>
+  <si>
+    <t>Swift River</t>
+  </si>
+  <si>
+    <t>Enduring Quickness</t>
+  </si>
+  <si>
+    <t>Fuse Stance</t>
+  </si>
+  <si>
+    <t>2 stances??</t>
+  </si>
+  <si>
+    <t>Impossible Technique</t>
+  </si>
+  <si>
+    <t>Flurry</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Outwit</t>
+  </si>
+  <si>
+    <t>Crossbow Ace</t>
+  </si>
+  <si>
+    <t>Hunted Shot</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Twin Takedown</t>
+  </si>
+  <si>
+    <t>Favored Terrain</t>
+  </si>
+  <si>
+    <t>Hunter's Aim</t>
+  </si>
+  <si>
+    <t>Monster Warden</t>
+  </si>
+  <si>
+    <t>Wild Empathy</t>
+  </si>
+  <si>
+    <t>Companion's Cry</t>
+  </si>
+  <si>
+    <t>Disrupt Prey</t>
+  </si>
+  <si>
+    <t>Far Shot</t>
+  </si>
+  <si>
+    <t>Favored Enemy</t>
+  </si>
+  <si>
+    <t>Running Reload</t>
+  </si>
+  <si>
+    <t>Scout's Warning</t>
+  </si>
+  <si>
+    <t>Snare Specialist</t>
+  </si>
+  <si>
+    <t>Crafting||Expert|||Snare Crafting</t>
+  </si>
+  <si>
+    <t>Quick Snares</t>
+  </si>
+  <si>
+    <t>Crafting||Expert|||Snare Specialist</t>
+  </si>
+  <si>
+    <t>Skirmish Strike</t>
+  </si>
+  <si>
+    <t>Snap Shot</t>
+  </si>
+  <si>
+    <t>Swift Tracker</t>
+  </si>
+  <si>
+    <t>Survival||Expert|||Experienced Tracker</t>
+  </si>
+  <si>
+    <t>Deadly Aim</t>
+  </si>
+  <si>
+    <t>Weapon Specialization</t>
+  </si>
+  <si>
+    <t>Hazard Finder</t>
+  </si>
+  <si>
+    <t>Powerful Snares</t>
+  </si>
+  <si>
+    <t>Crafting||Master|||Snare Specialist</t>
+  </si>
+  <si>
+    <t>Terrain Master</t>
+  </si>
+  <si>
+    <t>Wild Stride|||Survival||Master|||Favored Terrain</t>
+  </si>
+  <si>
+    <t>Warden's Boon</t>
+  </si>
+  <si>
+    <t>Camouflage</t>
+  </si>
+  <si>
+    <t>Stealth||Master</t>
+  </si>
+  <si>
+    <t>Master Monster Hunter</t>
+  </si>
+  <si>
+    <t>Nature||Master|||Monster Hunter</t>
+  </si>
+  <si>
+    <t>Penetrating Shot</t>
+  </si>
+  <si>
+    <t>Warden's Step</t>
+  </si>
+  <si>
+    <t>Distracting Shot</t>
+  </si>
+  <si>
+    <t>Double Prey</t>
+  </si>
+  <si>
+    <t>Lightning Snares</t>
+  </si>
+  <si>
+    <t>Second Sting</t>
+  </si>
+  <si>
+    <t>Sense the Unseen</t>
+  </si>
+  <si>
+    <t>Shared Prey</t>
+  </si>
+  <si>
+    <t>Double Prey|||Warden's Boon</t>
+  </si>
+  <si>
+    <t>Stealthy Companion</t>
+  </si>
+  <si>
+    <t>Targeting Shot</t>
+  </si>
+  <si>
+    <t>Warden's Guidance</t>
+  </si>
+  <si>
+    <t>Greater Distracting Shot</t>
+  </si>
+  <si>
+    <t>Improved Twin Riposte</t>
+  </si>
+  <si>
+    <t>Legendary Monster Hunter</t>
+  </si>
+  <si>
+    <t>Nature||Legendary|||Master Monster Hunter</t>
+  </si>
+  <si>
+    <t>Ubiquitous Snares</t>
+  </si>
+  <si>
+    <t>Impossible Flurry</t>
+  </si>
+  <si>
+    <t>Manifold Edge</t>
+  </si>
+  <si>
+    <t>Hunter's Edge|||Masterful Hunter</t>
+  </si>
+  <si>
+    <t>Masterful Companion</t>
+  </si>
+  <si>
+    <t>Masterful Hunter|||Animal Companion</t>
+  </si>
+  <si>
+    <t>Perfect Shot</t>
+  </si>
+  <si>
+    <t>Shadow Hunter</t>
+  </si>
+  <si>
+    <t>Legendary Shot</t>
+  </si>
+  <si>
+    <t>Masterful Hunter|||Perception||Legendary|||Far Shot</t>
+  </si>
+  <si>
+    <t>To the Ends of the Earth</t>
+  </si>
+  <si>
+    <t>Survival||Legendary</t>
+  </si>
+  <si>
+    <t>Triple Threat</t>
+  </si>
+  <si>
+    <t>Ultimate Skirmisher</t>
+  </si>
+  <si>
+    <t>Wild Stride</t>
+  </si>
+  <si>
+    <t>Ruffian</t>
+  </si>
+  <si>
+    <t>Scoundrel</t>
+  </si>
+  <si>
+    <t>Thief</t>
+  </si>
+  <si>
+    <t>Nimble Dodge</t>
+  </si>
+  <si>
+    <t>Trap Finder</t>
+  </si>
+  <si>
+    <t>Twin Feint</t>
+  </si>
+  <si>
+    <t>You're Next</t>
+  </si>
+  <si>
+    <t>Intimidation||Trained</t>
+  </si>
+  <si>
+    <t>Brutal Beating</t>
+  </si>
+  <si>
+    <t>Distracting Feint</t>
+  </si>
+  <si>
+    <t>Minor Magic</t>
+  </si>
+  <si>
+    <t>Mobility</t>
+  </si>
+  <si>
+    <t>Quick Draw</t>
+  </si>
+  <si>
+    <t>Unbalancing Blow</t>
+  </si>
+  <si>
+    <t>Battle Assessment</t>
+  </si>
+  <si>
+    <t>Dread Striker</t>
+  </si>
+  <si>
+    <t>Magical Trickster</t>
+  </si>
+  <si>
+    <t>Poison Weapon</t>
+  </si>
+  <si>
+    <t>Reactive Pursuit</t>
+  </si>
+  <si>
+    <t>Sabotage</t>
+  </si>
+  <si>
+    <t>Gang Up</t>
+  </si>
+  <si>
+    <t>Light Step</t>
+  </si>
+  <si>
+    <t>Twist the Knife</t>
+  </si>
+  <si>
+    <t>Delay Trap</t>
+  </si>
+  <si>
+    <t>Improved Poison Weapon</t>
+  </si>
+  <si>
+    <t>Nimble Roll</t>
+  </si>
+  <si>
+    <t>Opportune Backstab</t>
+  </si>
+  <si>
+    <t>Sidestep</t>
+  </si>
+  <si>
+    <t>Sly Striker</t>
+  </si>
+  <si>
+    <t>Sneak Attack</t>
+  </si>
+  <si>
+    <t>Precise Debilitations</t>
+  </si>
+  <si>
+    <t>Thief|||Debilitating Strike</t>
+  </si>
+  <si>
+    <t>Sneak Savant</t>
+  </si>
+  <si>
+    <t>Tactical Debilitations</t>
+  </si>
+  <si>
+    <t>Scoundrel|||Debilitating Strike</t>
+  </si>
+  <si>
+    <t>Vicious Debilitations</t>
+  </si>
+  <si>
+    <t>Ruffian|||Debilitating Strike</t>
+  </si>
+  <si>
+    <t>Critical Debilitation</t>
+  </si>
+  <si>
+    <t>Debilitating Strike</t>
+  </si>
+  <si>
+    <t>Fantastic Leap</t>
+  </si>
+  <si>
+    <t>Felling Shot</t>
+  </si>
+  <si>
+    <t>Reactive Interference</t>
+  </si>
+  <si>
+    <t>Spring From The Shadows</t>
+  </si>
+  <si>
+    <t>Defensive Roll</t>
+  </si>
+  <si>
+    <t>Instant Opening</t>
+  </si>
+  <si>
+    <t>Leave An Opening</t>
+  </si>
+  <si>
+    <t>Blank State</t>
+  </si>
+  <si>
+    <t>Deception||Legendary</t>
+  </si>
+  <si>
+    <t>Cloud Step</t>
+  </si>
+  <si>
+    <t>Acrobatics||Legendary</t>
+  </si>
+  <si>
+    <t>Cognitive Loophole</t>
+  </si>
+  <si>
+    <t>Dispelling Slice</t>
+  </si>
+  <si>
+    <t>Perfect Distraction</t>
+  </si>
+  <si>
+    <t>Implausible Infiltration</t>
+  </si>
+  <si>
+    <t>Acrobatics||Legendary|||Quick Squeeze</t>
+  </si>
+  <si>
+    <t>Powerful Sneak</t>
+  </si>
+  <si>
+    <t>Trickster's Ace</t>
+  </si>
+  <si>
+    <t>Hidden Paragon</t>
+  </si>
+  <si>
+    <t>Stealth||Legendary</t>
+  </si>
+  <si>
+    <t>Impossible Striker</t>
+  </si>
+  <si>
+    <t>Reactive Distraction</t>
+  </si>
+  <si>
+    <t>Deception||Legendary|||Perfect Distraction</t>
+  </si>
+  <si>
+    <t>Aberrant</t>
+  </si>
+  <si>
+    <t>Angelic</t>
+  </si>
+  <si>
+    <t>Demonic</t>
+  </si>
+  <si>
+    <t>Diabolic</t>
+  </si>
+  <si>
+    <t>Dragonic</t>
+  </si>
+  <si>
+    <t>Elemental</t>
+  </si>
+  <si>
+    <t>Fey</t>
+  </si>
+  <si>
+    <t>Hag</t>
+  </si>
+  <si>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>Undead</t>
+  </si>
+  <si>
+    <t>Counterspell</t>
+  </si>
+  <si>
+    <t>Dangerous Sorcery</t>
+  </si>
+  <si>
+    <t>Familiar</t>
+  </si>
+  <si>
+    <t>Arcane Evolution</t>
+  </si>
+  <si>
+    <t>Bloodline (arcana)</t>
+  </si>
+  <si>
+    <t>Bespell Weapon</t>
+  </si>
+  <si>
+    <t>Divine Evolution</t>
+  </si>
+  <si>
+    <t>Bloodline (divine)</t>
+  </si>
+  <si>
+    <t>Occult Evolution</t>
+  </si>
+  <si>
+    <t>Bloodline (occult)</t>
+  </si>
+  <si>
+    <t>Primal Evolution</t>
+  </si>
+  <si>
+    <t>Bloodline (primal)</t>
+  </si>
+  <si>
+    <t>Advanced Bloodline</t>
+  </si>
+  <si>
+    <t>Bloodline Spell</t>
+  </si>
+  <si>
+    <t>Bloodline Resistance</t>
+  </si>
+  <si>
+    <t>Crossblooded Evolution</t>
+  </si>
+  <si>
+    <t>Greates Bloodline</t>
+  </si>
+  <si>
+    <t>Bloodline Focus</t>
+  </si>
+  <si>
+    <t>Magic Sence</t>
+  </si>
+  <si>
+    <t>Interweave Dispel</t>
+  </si>
+  <si>
+    <t>Dispel Magic</t>
+  </si>
+  <si>
+    <t>Reflect Spell</t>
+  </si>
+  <si>
+    <t>Greater Mental Evolution</t>
+  </si>
+  <si>
+    <t>Arcane Evolution||||Occult Evolution</t>
+  </si>
+  <si>
+    <t>Greater Vital Evolution</t>
+  </si>
+  <si>
+    <t>Divine Evolution||||Primal Evolution</t>
+  </si>
+  <si>
+    <t>Bloodline Wellspring</t>
+  </si>
+  <si>
+    <t>Greater Crossblooded Evolution</t>
+  </si>
+  <si>
+    <t>Bloodline Conduit</t>
+  </si>
+  <si>
+    <t>Bloodline Perfection</t>
+  </si>
+  <si>
+    <t>Bloodline Paragon</t>
+  </si>
+  <si>
+    <t>Metamagic Mastery</t>
+  </si>
+  <si>
+    <t>Specialist</t>
+  </si>
+  <si>
+    <t>Arcane Bond</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>Arcane Thesis</t>
+  </si>
+  <si>
+    <t>Eschew Materials</t>
+  </si>
+  <si>
+    <t>Hand of the Apprentice</t>
+  </si>
+  <si>
+    <t>Specialist (universalist)</t>
+  </si>
+  <si>
+    <t>Conceal Spell</t>
+  </si>
+  <si>
+    <t>Arcane Bond|||Arcane School</t>
+  </si>
+  <si>
+    <t>Linked Focus</t>
+  </si>
+  <si>
+    <t>Silent Spell</t>
+  </si>
+  <si>
+    <t>Spell Penetration</t>
+  </si>
+  <si>
+    <t>Advanced School Spell</t>
+  </si>
+  <si>
+    <t>Arcane School</t>
+  </si>
+  <si>
+    <t>Bond Conservation</t>
+  </si>
+  <si>
+    <t>Universal Versatility</t>
+  </si>
+  <si>
+    <t>Specialist (universalist)|||Hand of the Apprentice</t>
+  </si>
+  <si>
+    <t>Scroll Savant</t>
+  </si>
+  <si>
+    <t>Crafting||Expert</t>
+  </si>
+  <si>
+    <t>Clever Counterspell</t>
+  </si>
+  <si>
+    <t>Counterspell|||Quick Recognize</t>
+  </si>
+  <si>
+    <t>Magic Sense</t>
+  </si>
+  <si>
+    <t>Bonded Focus</t>
+  </si>
+  <si>
+    <t>Superior Bond</t>
+  </si>
+  <si>
+    <t>Spell Tinker</t>
+  </si>
+  <si>
+    <t>Infinite Possibilities</t>
+  </si>
+  <si>
+    <t>Reprepare Spell</t>
+  </si>
+  <si>
+    <t>Archwizard's Might</t>
+  </si>
+  <si>
+    <t>Archwizard's Spellcraft</t>
+  </si>
+  <si>
+    <t>Spell Combination</t>
   </si>
 </sst>
 </file>
@@ -717,10 +2412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,20 +2427,32 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1936,7 +3643,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -1947,7 +3654,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -1958,7 +3665,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -1978,12 +3685,12 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
@@ -1992,7 +3699,6336 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>8</v>
+      </c>
+      <c r="D134" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>147</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>10</v>
+      </c>
+      <c r="D138" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>151</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>152</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>153</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>18</v>
+      </c>
+      <c r="D145" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>18</v>
+      </c>
+      <c r="D146" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>18</v>
+      </c>
+      <c r="D147" t="s">
+        <v>159</v>
+      </c>
+      <c r="E147" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>161</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>20</v>
+      </c>
+      <c r="D148" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>163</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>20</v>
+      </c>
+      <c r="D149" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>165</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>20</v>
+      </c>
+      <c r="D150" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>168</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>170</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>172</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>174</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>175</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>177</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>178</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>179</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>180</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>181</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>182</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>183</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+      <c r="D165" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>184</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>4</v>
+      </c>
+      <c r="D166" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>186</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+      <c r="D167" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>81</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>188</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>226</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>190</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>191</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>195</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>8</v>
+      </c>
+      <c r="D173" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>8</v>
+      </c>
+      <c r="D174" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>197</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>8</v>
+      </c>
+      <c r="D175" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>198</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>199</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>8</v>
+      </c>
+      <c r="D177" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>201</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>8</v>
+      </c>
+      <c r="D178" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>202</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>10</v>
+      </c>
+      <c r="D179" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>203</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>10</v>
+      </c>
+      <c r="D180" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>204</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <v>10</v>
+      </c>
+      <c r="D181" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>205</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>10</v>
+      </c>
+      <c r="D182" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>206</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>10</v>
+      </c>
+      <c r="D183" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>209</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>12</v>
+      </c>
+      <c r="D184" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>210</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>12</v>
+      </c>
+      <c r="D185" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>211</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186">
+        <v>12</v>
+      </c>
+      <c r="D186" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>212</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187">
+        <v>12</v>
+      </c>
+      <c r="D187" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>213</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>214</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>215</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>12</v>
+      </c>
+      <c r="D190" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>216</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191">
+        <v>14</v>
+      </c>
+      <c r="D191" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>217</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192">
+        <v>14</v>
+      </c>
+      <c r="D192" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>218</v>
+      </c>
+      <c r="B193" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193">
+        <v>14</v>
+      </c>
+      <c r="D193" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>219</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194">
+        <v>14</v>
+      </c>
+      <c r="D194" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>221</v>
+      </c>
+      <c r="B195" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>222</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196">
+        <v>14</v>
+      </c>
+      <c r="D196" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>223</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>14</v>
+      </c>
+      <c r="D197" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>224</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198">
+        <v>16</v>
+      </c>
+      <c r="D198" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>229</v>
+      </c>
+      <c r="B199" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199">
+        <v>16</v>
+      </c>
+      <c r="D199" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>228</v>
+      </c>
+      <c r="B200" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>16</v>
+      </c>
+      <c r="D200" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>231</v>
+      </c>
+      <c r="B201" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201">
+        <v>18</v>
+      </c>
+      <c r="D201" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>232</v>
+      </c>
+      <c r="B202" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <v>18</v>
+      </c>
+      <c r="D202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>233</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>20</v>
+      </c>
+      <c r="D203" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>235</v>
+      </c>
+      <c r="B204" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204">
+        <v>20</v>
+      </c>
+      <c r="D204" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>237</v>
+      </c>
+      <c r="B205" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>20</v>
+      </c>
+      <c r="D205" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>239</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>238</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>240</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>241</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>242</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>243</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>246</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>125</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>127</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>247</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>248</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>249</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>250</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>251</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>253</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>254</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222">
+        <v>4</v>
+      </c>
+      <c r="D222" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>257</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>258</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224">
+        <v>4</v>
+      </c>
+      <c r="D224" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>259</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225">
+        <v>4</v>
+      </c>
+      <c r="D225" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>260</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226">
+        <v>6</v>
+      </c>
+      <c r="D226" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>262</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>263</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>140</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>264</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230">
+        <v>8</v>
+      </c>
+      <c r="D230" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>265</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231">
+        <v>8</v>
+      </c>
+      <c r="D231" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>267</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232">
+        <v>8</v>
+      </c>
+      <c r="D232" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>268</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>269</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234">
+        <v>8</v>
+      </c>
+      <c r="D234" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>270</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235">
+        <v>10</v>
+      </c>
+      <c r="D235" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>271</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236">
+        <v>10</v>
+      </c>
+      <c r="D236" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>273</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237">
+        <v>10</v>
+      </c>
+      <c r="D237" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>274</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>275</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239">
+        <v>12</v>
+      </c>
+      <c r="D239" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>277</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>278</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241">
+        <v>12</v>
+      </c>
+      <c r="D241" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>279</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242">
+        <v>12</v>
+      </c>
+      <c r="D242" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>280</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243">
+        <v>14</v>
+      </c>
+      <c r="D243" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>281</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244">
+        <v>14</v>
+      </c>
+      <c r="D244" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>282</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245">
+        <v>14</v>
+      </c>
+      <c r="D245" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>283</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>284</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247">
+        <v>16</v>
+      </c>
+      <c r="D247" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>286</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248">
+        <v>16</v>
+      </c>
+      <c r="D248" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>287</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>288</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250">
+        <v>18</v>
+      </c>
+      <c r="D250" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>289</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>290</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252">
+        <v>18</v>
+      </c>
+      <c r="D252" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>291</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>292</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254">
+        <v>20</v>
+      </c>
+      <c r="D254" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>294</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>295</v>
+      </c>
+      <c r="B257" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>296</v>
+      </c>
+      <c r="B258" t="s">
+        <v>6</v>
+      </c>
+      <c r="C258" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>297</v>
+      </c>
+      <c r="B259" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>298</v>
+      </c>
+      <c r="B260" t="s">
+        <v>6</v>
+      </c>
+      <c r="C260" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>299</v>
+      </c>
+      <c r="B262" t="s">
+        <v>6</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>301</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>125</v>
+      </c>
+      <c r="B264" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>303</v>
+      </c>
+      <c r="B265" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>305</v>
+      </c>
+      <c r="B266" t="s">
+        <v>6</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>306</v>
+      </c>
+      <c r="B267" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>308</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>309</v>
+      </c>
+      <c r="B269" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+      <c r="D269" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>311</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>25</v>
+      </c>
+      <c r="B271" t="s">
+        <v>6</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>312</v>
+      </c>
+      <c r="B272" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+      <c r="D272" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>314</v>
+      </c>
+      <c r="B273" t="s">
+        <v>6</v>
+      </c>
+      <c r="C273">
+        <v>4</v>
+      </c>
+      <c r="D273" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>315</v>
+      </c>
+      <c r="B274" t="s">
+        <v>6</v>
+      </c>
+      <c r="C274">
+        <v>4</v>
+      </c>
+      <c r="D274" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>316</v>
+      </c>
+      <c r="B275" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275">
+        <v>4</v>
+      </c>
+      <c r="D275" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>317</v>
+      </c>
+      <c r="B276" t="s">
+        <v>6</v>
+      </c>
+      <c r="C276">
+        <v>4</v>
+      </c>
+      <c r="D276" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>318</v>
+      </c>
+      <c r="B277" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>319</v>
+      </c>
+      <c r="B278" t="s">
+        <v>6</v>
+      </c>
+      <c r="C278">
+        <v>6</v>
+      </c>
+      <c r="D278" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>140</v>
+      </c>
+      <c r="B279" t="s">
+        <v>6</v>
+      </c>
+      <c r="C279">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>320</v>
+      </c>
+      <c r="B280" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280">
+        <v>6</v>
+      </c>
+      <c r="D280" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>321</v>
+      </c>
+      <c r="B281" t="s">
+        <v>6</v>
+      </c>
+      <c r="C281">
+        <v>8</v>
+      </c>
+      <c r="D281" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>322</v>
+      </c>
+      <c r="B282" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>323</v>
+      </c>
+      <c r="B283" t="s">
+        <v>6</v>
+      </c>
+      <c r="C283">
+        <v>8</v>
+      </c>
+      <c r="D283" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>324</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284">
+        <v>8</v>
+      </c>
+      <c r="D284" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>325</v>
+      </c>
+      <c r="B285" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285">
+        <v>8</v>
+      </c>
+      <c r="D285" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>326</v>
+      </c>
+      <c r="B286" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286">
+        <v>10</v>
+      </c>
+      <c r="D286" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>327</v>
+      </c>
+      <c r="B287" t="s">
+        <v>6</v>
+      </c>
+      <c r="C287">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>328</v>
+      </c>
+      <c r="B288" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>329</v>
+      </c>
+      <c r="B289" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289">
+        <v>10</v>
+      </c>
+      <c r="D289" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>331</v>
+      </c>
+      <c r="B290" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290">
+        <v>10</v>
+      </c>
+      <c r="D290" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>332</v>
+      </c>
+      <c r="B291" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291">
+        <v>12</v>
+      </c>
+      <c r="D291" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>333</v>
+      </c>
+      <c r="B292" t="s">
+        <v>6</v>
+      </c>
+      <c r="C292">
+        <v>12</v>
+      </c>
+      <c r="D292" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>334</v>
+      </c>
+      <c r="B293" t="s">
+        <v>6</v>
+      </c>
+      <c r="C293">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>335</v>
+      </c>
+      <c r="B294" t="s">
+        <v>6</v>
+      </c>
+      <c r="C294">
+        <v>12</v>
+      </c>
+      <c r="D294" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>336</v>
+      </c>
+      <c r="B295" t="s">
+        <v>6</v>
+      </c>
+      <c r="C295">
+        <v>14</v>
+      </c>
+      <c r="D295" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>337</v>
+      </c>
+      <c r="B296" t="s">
+        <v>6</v>
+      </c>
+      <c r="C296">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>338</v>
+      </c>
+      <c r="B297" t="s">
+        <v>6</v>
+      </c>
+      <c r="C297">
+        <v>14</v>
+      </c>
+      <c r="D297" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>153</v>
+      </c>
+      <c r="B298" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>339</v>
+      </c>
+      <c r="B299" t="s">
+        <v>6</v>
+      </c>
+      <c r="C299">
+        <v>16</v>
+      </c>
+      <c r="D299" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>340</v>
+      </c>
+      <c r="B300" t="s">
+        <v>6</v>
+      </c>
+      <c r="C300">
+        <v>16</v>
+      </c>
+      <c r="D300" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>341</v>
+      </c>
+      <c r="B301" t="s">
+        <v>6</v>
+      </c>
+      <c r="C301">
+        <v>18</v>
+      </c>
+      <c r="D301" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>342</v>
+      </c>
+      <c r="B302" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302">
+        <v>18</v>
+      </c>
+      <c r="D302" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>344</v>
+      </c>
+      <c r="B303" t="s">
+        <v>6</v>
+      </c>
+      <c r="C303">
+        <v>18</v>
+      </c>
+      <c r="D303" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>346</v>
+      </c>
+      <c r="B304" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304">
+        <v>20</v>
+      </c>
+      <c r="D304" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>348</v>
+      </c>
+      <c r="B305" t="s">
+        <v>6</v>
+      </c>
+      <c r="C305">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>349</v>
+      </c>
+      <c r="B306" t="s">
+        <v>6</v>
+      </c>
+      <c r="C306">
+        <v>20</v>
+      </c>
+      <c r="D306" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>351</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>352</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>353</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>354</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>355</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>356</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>68</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>357</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1</v>
+      </c>
+      <c r="C315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>358</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>359</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>360</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>361</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>362</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>363</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>364</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>365</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>366</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>367</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>368</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>369</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>78</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>370</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>371</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>372</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>373</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>6</v>
+      </c>
+      <c r="D332" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>374</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>6</v>
+      </c>
+      <c r="D333" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>376</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>377</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>378</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>379</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>190</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>6</v>
+      </c>
+      <c r="D338" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>381</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1</v>
+      </c>
+      <c r="C339">
+        <v>6</v>
+      </c>
+      <c r="D339" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>382</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>8</v>
+      </c>
+      <c r="D340" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>384</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1</v>
+      </c>
+      <c r="C341">
+        <v>8</v>
+      </c>
+      <c r="D341" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>385</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>386</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1</v>
+      </c>
+      <c r="C343">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>387</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>388</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1</v>
+      </c>
+      <c r="C345">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>389</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>8</v>
+      </c>
+      <c r="D346" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>92</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>391</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>392</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1</v>
+      </c>
+      <c r="C349">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>393</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1</v>
+      </c>
+      <c r="C350">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>394</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>395</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>10</v>
+      </c>
+      <c r="D352" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>396</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>397</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>398</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1</v>
+      </c>
+      <c r="C355">
+        <v>10</v>
+      </c>
+      <c r="D355" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>399</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>400</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1</v>
+      </c>
+      <c r="C357">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>401</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>402</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>12</v>
+      </c>
+      <c r="D359" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>403</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>12</v>
+      </c>
+      <c r="D360" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>405</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1</v>
+      </c>
+      <c r="C361">
+        <v>12</v>
+      </c>
+      <c r="D361" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>406</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>12</v>
+      </c>
+      <c r="D362" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>407</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1</v>
+      </c>
+      <c r="C363">
+        <v>12</v>
+      </c>
+      <c r="D363" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>409</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>410</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1</v>
+      </c>
+      <c r="C365">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>411</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>412</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>413</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>414</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>14</v>
+      </c>
+      <c r="D369" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>415</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>416</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1</v>
+      </c>
+      <c r="C371">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>109</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>417</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1</v>
+      </c>
+      <c r="C373">
+        <v>16</v>
+      </c>
+      <c r="D373" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>418</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>16</v>
+      </c>
+      <c r="D374" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>419</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1</v>
+      </c>
+      <c r="C375">
+        <v>16</v>
+      </c>
+      <c r="D375" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>420</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1</v>
+      </c>
+      <c r="C376">
+        <v>16</v>
+      </c>
+      <c r="D376" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>421</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>422</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>423</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1</v>
+      </c>
+      <c r="C379">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>424</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>425</v>
+      </c>
+      <c r="B382" t="s">
+        <v>7</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>426</v>
+      </c>
+      <c r="B383" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>427</v>
+      </c>
+      <c r="B384" t="s">
+        <v>7</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>428</v>
+      </c>
+      <c r="B385" t="s">
+        <v>7</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>429</v>
+      </c>
+      <c r="B386" t="s">
+        <v>7</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>430</v>
+      </c>
+      <c r="B387" t="s">
+        <v>7</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>431</v>
+      </c>
+      <c r="B388" t="s">
+        <v>7</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>432</v>
+      </c>
+      <c r="B389" t="s">
+        <v>7</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>433</v>
+      </c>
+      <c r="B390" t="s">
+        <v>7</v>
+      </c>
+      <c r="C390">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>434</v>
+      </c>
+      <c r="B391" t="s">
+        <v>7</v>
+      </c>
+      <c r="C391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>435</v>
+      </c>
+      <c r="B392" t="s">
+        <v>7</v>
+      </c>
+      <c r="C392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>436</v>
+      </c>
+      <c r="B393" t="s">
+        <v>7</v>
+      </c>
+      <c r="C393">
+        <v>2</v>
+      </c>
+      <c r="D393" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>437</v>
+      </c>
+      <c r="B394" t="s">
+        <v>7</v>
+      </c>
+      <c r="C394">
+        <v>2</v>
+      </c>
+      <c r="D394" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>439</v>
+      </c>
+      <c r="B395" t="s">
+        <v>7</v>
+      </c>
+      <c r="C395">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>440</v>
+      </c>
+      <c r="B396" t="s">
+        <v>7</v>
+      </c>
+      <c r="C396">
+        <v>4</v>
+      </c>
+      <c r="D396" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>441</v>
+      </c>
+      <c r="B397" t="s">
+        <v>7</v>
+      </c>
+      <c r="C397">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>442</v>
+      </c>
+      <c r="B398" t="s">
+        <v>7</v>
+      </c>
+      <c r="C398">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>443</v>
+      </c>
+      <c r="B399" t="s">
+        <v>7</v>
+      </c>
+      <c r="C399">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>444</v>
+      </c>
+      <c r="B400" t="s">
+        <v>7</v>
+      </c>
+      <c r="C400">
+        <v>4</v>
+      </c>
+      <c r="D400" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>446</v>
+      </c>
+      <c r="B401" t="s">
+        <v>7</v>
+      </c>
+      <c r="C401">
+        <v>6</v>
+      </c>
+      <c r="D401" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>448</v>
+      </c>
+      <c r="B402" t="s">
+        <v>7</v>
+      </c>
+      <c r="C402">
+        <v>6</v>
+      </c>
+      <c r="D402" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>449</v>
+      </c>
+      <c r="B403" t="s">
+        <v>7</v>
+      </c>
+      <c r="C403">
+        <v>6</v>
+      </c>
+      <c r="D403" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>450</v>
+      </c>
+      <c r="B404" t="s">
+        <v>7</v>
+      </c>
+      <c r="C404">
+        <v>6</v>
+      </c>
+      <c r="D404" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>451</v>
+      </c>
+      <c r="B405" t="s">
+        <v>7</v>
+      </c>
+      <c r="C405">
+        <v>6</v>
+      </c>
+      <c r="D405" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>452</v>
+      </c>
+      <c r="B406" t="s">
+        <v>7</v>
+      </c>
+      <c r="C406">
+        <v>6</v>
+      </c>
+      <c r="D406" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>453</v>
+      </c>
+      <c r="B407" t="s">
+        <v>7</v>
+      </c>
+      <c r="C407">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>454</v>
+      </c>
+      <c r="B408" t="s">
+        <v>7</v>
+      </c>
+      <c r="C408">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>455</v>
+      </c>
+      <c r="B409" t="s">
+        <v>7</v>
+      </c>
+      <c r="C409">
+        <v>6</v>
+      </c>
+      <c r="D409" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>456</v>
+      </c>
+      <c r="B410" t="s">
+        <v>7</v>
+      </c>
+      <c r="C410">
+        <v>8</v>
+      </c>
+      <c r="D410" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>457</v>
+      </c>
+      <c r="B411" t="s">
+        <v>7</v>
+      </c>
+      <c r="C411">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>458</v>
+      </c>
+      <c r="B412" t="s">
+        <v>7</v>
+      </c>
+      <c r="C412">
+        <v>8</v>
+      </c>
+      <c r="D412" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>459</v>
+      </c>
+      <c r="B413" t="s">
+        <v>7</v>
+      </c>
+      <c r="C413">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>460</v>
+      </c>
+      <c r="B414" t="s">
+        <v>7</v>
+      </c>
+      <c r="C414">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>461</v>
+      </c>
+      <c r="B415" t="s">
+        <v>7</v>
+      </c>
+      <c r="C415">
+        <v>8</v>
+      </c>
+      <c r="D415" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>462</v>
+      </c>
+      <c r="B416" t="s">
+        <v>7</v>
+      </c>
+      <c r="C416">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>463</v>
+      </c>
+      <c r="B417" t="s">
+        <v>7</v>
+      </c>
+      <c r="C417">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>464</v>
+      </c>
+      <c r="B418" t="s">
+        <v>7</v>
+      </c>
+      <c r="C418">
+        <v>10</v>
+      </c>
+      <c r="D418" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>465</v>
+      </c>
+      <c r="B419" t="s">
+        <v>7</v>
+      </c>
+      <c r="C419">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>466</v>
+      </c>
+      <c r="B420" t="s">
+        <v>7</v>
+      </c>
+      <c r="C420">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>467</v>
+      </c>
+      <c r="B421" t="s">
+        <v>7</v>
+      </c>
+      <c r="C421">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>468</v>
+      </c>
+      <c r="B422" t="s">
+        <v>7</v>
+      </c>
+      <c r="C422">
+        <v>12</v>
+      </c>
+      <c r="D422" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>469</v>
+      </c>
+      <c r="B423" t="s">
+        <v>7</v>
+      </c>
+      <c r="C423">
+        <v>12</v>
+      </c>
+      <c r="D423" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>415</v>
+      </c>
+      <c r="B424" t="s">
+        <v>7</v>
+      </c>
+      <c r="C424">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>470</v>
+      </c>
+      <c r="B425" t="s">
+        <v>7</v>
+      </c>
+      <c r="C425">
+        <v>14</v>
+      </c>
+      <c r="D425" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>471</v>
+      </c>
+      <c r="B426" t="s">
+        <v>7</v>
+      </c>
+      <c r="C426">
+        <v>14</v>
+      </c>
+      <c r="D426" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>472</v>
+      </c>
+      <c r="B427" t="s">
+        <v>7</v>
+      </c>
+      <c r="C427">
+        <v>14</v>
+      </c>
+      <c r="D427" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>473</v>
+      </c>
+      <c r="B428" t="s">
+        <v>7</v>
+      </c>
+      <c r="C428">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>474</v>
+      </c>
+      <c r="B429" t="s">
+        <v>7</v>
+      </c>
+      <c r="C429">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>475</v>
+      </c>
+      <c r="B430" t="s">
+        <v>7</v>
+      </c>
+      <c r="C430">
+        <v>14</v>
+      </c>
+      <c r="D430" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>476</v>
+      </c>
+      <c r="B431" t="s">
+        <v>7</v>
+      </c>
+      <c r="C431">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>477</v>
+      </c>
+      <c r="B432" t="s">
+        <v>7</v>
+      </c>
+      <c r="C432">
+        <v>16</v>
+      </c>
+      <c r="D432" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>478</v>
+      </c>
+      <c r="B433" t="s">
+        <v>7</v>
+      </c>
+      <c r="C433">
+        <v>16</v>
+      </c>
+      <c r="D433" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>479</v>
+      </c>
+      <c r="B434" t="s">
+        <v>7</v>
+      </c>
+      <c r="C434">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>480</v>
+      </c>
+      <c r="B435" t="s">
+        <v>7</v>
+      </c>
+      <c r="C435">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>481</v>
+      </c>
+      <c r="B436" t="s">
+        <v>7</v>
+      </c>
+      <c r="C436">
+        <v>18</v>
+      </c>
+      <c r="D436" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>482</v>
+      </c>
+      <c r="B437" t="s">
+        <v>7</v>
+      </c>
+      <c r="C437">
+        <v>18</v>
+      </c>
+      <c r="D437" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>483</v>
+      </c>
+      <c r="B438" t="s">
+        <v>7</v>
+      </c>
+      <c r="C438">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>484</v>
+      </c>
+      <c r="B439" t="s">
+        <v>7</v>
+      </c>
+      <c r="C439">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>485</v>
+      </c>
+      <c r="B440" t="s">
+        <v>7</v>
+      </c>
+      <c r="C440">
+        <v>20</v>
+      </c>
+      <c r="D440" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>487</v>
+      </c>
+      <c r="B441" t="s">
+        <v>7</v>
+      </c>
+      <c r="C441">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>488</v>
+      </c>
+      <c r="B443" t="s">
+        <v>8</v>
+      </c>
+      <c r="C443" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>489</v>
+      </c>
+      <c r="B444" t="s">
+        <v>8</v>
+      </c>
+      <c r="C444" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>490</v>
+      </c>
+      <c r="B445" t="s">
+        <v>8</v>
+      </c>
+      <c r="C445" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>299</v>
+      </c>
+      <c r="B446" t="s">
+        <v>8</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>491</v>
+      </c>
+      <c r="B447" t="s">
+        <v>8</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>492</v>
+      </c>
+      <c r="B448" t="s">
+        <v>8</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>493</v>
+      </c>
+      <c r="B449" t="s">
+        <v>8</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>494</v>
+      </c>
+      <c r="B450" t="s">
+        <v>8</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>495</v>
+      </c>
+      <c r="B451" t="s">
+        <v>8</v>
+      </c>
+      <c r="C451">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>496</v>
+      </c>
+      <c r="B452" t="s">
+        <v>8</v>
+      </c>
+      <c r="C452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>497</v>
+      </c>
+      <c r="B453" t="s">
+        <v>8</v>
+      </c>
+      <c r="C453">
+        <v>2</v>
+      </c>
+      <c r="D453" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>498</v>
+      </c>
+      <c r="B454" t="s">
+        <v>8</v>
+      </c>
+      <c r="C454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>499</v>
+      </c>
+      <c r="B455" t="s">
+        <v>8</v>
+      </c>
+      <c r="C455">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>500</v>
+      </c>
+      <c r="B456" t="s">
+        <v>8</v>
+      </c>
+      <c r="C456">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>501</v>
+      </c>
+      <c r="B457" t="s">
+        <v>8</v>
+      </c>
+      <c r="C457">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>502</v>
+      </c>
+      <c r="B458" t="s">
+        <v>8</v>
+      </c>
+      <c r="C458">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>503</v>
+      </c>
+      <c r="B459" t="s">
+        <v>8</v>
+      </c>
+      <c r="C459">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>504</v>
+      </c>
+      <c r="B460" t="s">
+        <v>8</v>
+      </c>
+      <c r="C460">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>505</v>
+      </c>
+      <c r="B461" t="s">
+        <v>8</v>
+      </c>
+      <c r="C461">
+        <v>4</v>
+      </c>
+      <c r="D461" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>370</v>
+      </c>
+      <c r="B462" t="s">
+        <v>8</v>
+      </c>
+      <c r="C462">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>314</v>
+      </c>
+      <c r="B463" t="s">
+        <v>8</v>
+      </c>
+      <c r="C463">
+        <v>6</v>
+      </c>
+      <c r="D463" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>507</v>
+      </c>
+      <c r="B464" t="s">
+        <v>8</v>
+      </c>
+      <c r="C464">
+        <v>6</v>
+      </c>
+      <c r="D464" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>509</v>
+      </c>
+      <c r="B465" t="s">
+        <v>8</v>
+      </c>
+      <c r="C465">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>510</v>
+      </c>
+      <c r="B466" t="s">
+        <v>8</v>
+      </c>
+      <c r="C466">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>511</v>
+      </c>
+      <c r="B467" t="s">
+        <v>8</v>
+      </c>
+      <c r="C467">
+        <v>6</v>
+      </c>
+      <c r="D467" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>382</v>
+      </c>
+      <c r="B468" t="s">
+        <v>8</v>
+      </c>
+      <c r="C468">
+        <v>8</v>
+      </c>
+      <c r="D468" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>513</v>
+      </c>
+      <c r="B469" t="s">
+        <v>8</v>
+      </c>
+      <c r="C469">
+        <v>8</v>
+      </c>
+      <c r="D469" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>515</v>
+      </c>
+      <c r="B470" t="s">
+        <v>8</v>
+      </c>
+      <c r="C470">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>516</v>
+      </c>
+      <c r="B471" t="s">
+        <v>8</v>
+      </c>
+      <c r="C471">
+        <v>8</v>
+      </c>
+      <c r="D471" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>518</v>
+      </c>
+      <c r="B472" t="s">
+        <v>8</v>
+      </c>
+      <c r="C472">
+        <v>8</v>
+      </c>
+      <c r="D472" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>520</v>
+      </c>
+      <c r="B473" t="s">
+        <v>8</v>
+      </c>
+      <c r="C473">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>521</v>
+      </c>
+      <c r="B474" t="s">
+        <v>8</v>
+      </c>
+      <c r="C474">
+        <v>10</v>
+      </c>
+      <c r="D474" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>323</v>
+      </c>
+      <c r="B475" t="s">
+        <v>8</v>
+      </c>
+      <c r="C475">
+        <v>10</v>
+      </c>
+      <c r="D475" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>523</v>
+      </c>
+      <c r="B476" t="s">
+        <v>8</v>
+      </c>
+      <c r="C476">
+        <v>10</v>
+      </c>
+      <c r="D476" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>525</v>
+      </c>
+      <c r="B477" t="s">
+        <v>8</v>
+      </c>
+      <c r="C477">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>400</v>
+      </c>
+      <c r="B478" t="s">
+        <v>8</v>
+      </c>
+      <c r="C478">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>526</v>
+      </c>
+      <c r="B479" t="s">
+        <v>8</v>
+      </c>
+      <c r="C479">
+        <v>10</v>
+      </c>
+      <c r="D479" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>527</v>
+      </c>
+      <c r="B480" t="s">
+        <v>8</v>
+      </c>
+      <c r="C480">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>528</v>
+      </c>
+      <c r="B481" t="s">
+        <v>8</v>
+      </c>
+      <c r="C481">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>529</v>
+      </c>
+      <c r="B482" t="s">
+        <v>8</v>
+      </c>
+      <c r="C482">
+        <v>12</v>
+      </c>
+      <c r="D482" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>530</v>
+      </c>
+      <c r="B483" t="s">
+        <v>8</v>
+      </c>
+      <c r="C483">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>331</v>
+      </c>
+      <c r="B484" t="s">
+        <v>8</v>
+      </c>
+      <c r="C484">
+        <v>12</v>
+      </c>
+      <c r="D484" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>531</v>
+      </c>
+      <c r="B485" t="s">
+        <v>8</v>
+      </c>
+      <c r="C485">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>532</v>
+      </c>
+      <c r="B486" t="s">
+        <v>8</v>
+      </c>
+      <c r="C486">
+        <v>14</v>
+      </c>
+      <c r="D486" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>534</v>
+      </c>
+      <c r="B487" t="s">
+        <v>8</v>
+      </c>
+      <c r="C487">
+        <v>14</v>
+      </c>
+      <c r="D487" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>535</v>
+      </c>
+      <c r="B488" t="s">
+        <v>8</v>
+      </c>
+      <c r="C488">
+        <v>14</v>
+      </c>
+      <c r="D488" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>536</v>
+      </c>
+      <c r="B489" t="s">
+        <v>8</v>
+      </c>
+      <c r="C489">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>537</v>
+      </c>
+      <c r="B490" t="s">
+        <v>8</v>
+      </c>
+      <c r="C490">
+        <v>16</v>
+      </c>
+      <c r="D490" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>538</v>
+      </c>
+      <c r="B491" t="s">
+        <v>8</v>
+      </c>
+      <c r="C491">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>539</v>
+      </c>
+      <c r="B492" t="s">
+        <v>8</v>
+      </c>
+      <c r="C492">
+        <v>16</v>
+      </c>
+      <c r="D492" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>336</v>
+      </c>
+      <c r="B493" t="s">
+        <v>8</v>
+      </c>
+      <c r="C493">
+        <v>16</v>
+      </c>
+      <c r="D493" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>541</v>
+      </c>
+      <c r="B494" t="s">
+        <v>8</v>
+      </c>
+      <c r="C494">
+        <v>16</v>
+      </c>
+      <c r="D494" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>542</v>
+      </c>
+      <c r="B495" t="s">
+        <v>8</v>
+      </c>
+      <c r="C495">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>421</v>
+      </c>
+      <c r="B496" t="s">
+        <v>8</v>
+      </c>
+      <c r="C496">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>543</v>
+      </c>
+      <c r="B497" t="s">
+        <v>8</v>
+      </c>
+      <c r="C497">
+        <v>18</v>
+      </c>
+      <c r="D497" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>545</v>
+      </c>
+      <c r="B498" t="s">
+        <v>8</v>
+      </c>
+      <c r="C498">
+        <v>18</v>
+      </c>
+      <c r="D498" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>547</v>
+      </c>
+      <c r="B499" t="s">
+        <v>8</v>
+      </c>
+      <c r="C499">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>548</v>
+      </c>
+      <c r="B500" t="s">
+        <v>8</v>
+      </c>
+      <c r="C500">
+        <v>18</v>
+      </c>
+      <c r="D500" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>549</v>
+      </c>
+      <c r="B501" t="s">
+        <v>8</v>
+      </c>
+      <c r="C501">
+        <v>20</v>
+      </c>
+      <c r="D501" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>551</v>
+      </c>
+      <c r="B502" t="s">
+        <v>8</v>
+      </c>
+      <c r="C502">
+        <v>20</v>
+      </c>
+      <c r="D502" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>553</v>
+      </c>
+      <c r="B503" t="s">
+        <v>8</v>
+      </c>
+      <c r="C503">
+        <v>20</v>
+      </c>
+      <c r="D503" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>554</v>
+      </c>
+      <c r="B504" t="s">
+        <v>8</v>
+      </c>
+      <c r="C504">
+        <v>20</v>
+      </c>
+      <c r="D504" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>556</v>
+      </c>
+      <c r="B506" t="s">
+        <v>9</v>
+      </c>
+      <c r="C506" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>557</v>
+      </c>
+      <c r="B507" t="s">
+        <v>9</v>
+      </c>
+      <c r="C507" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>558</v>
+      </c>
+      <c r="B508" t="s">
+        <v>9</v>
+      </c>
+      <c r="C508" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>559</v>
+      </c>
+      <c r="B509" t="s">
+        <v>9</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>560</v>
+      </c>
+      <c r="B510" t="s">
+        <v>9</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>561</v>
+      </c>
+      <c r="B511" t="s">
+        <v>9</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>562</v>
+      </c>
+      <c r="B512" t="s">
+        <v>9</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>564</v>
+      </c>
+      <c r="B513" t="s">
+        <v>9</v>
+      </c>
+      <c r="C513">
+        <v>2</v>
+      </c>
+      <c r="D513" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>565</v>
+      </c>
+      <c r="B514" t="s">
+        <v>9</v>
+      </c>
+      <c r="C514">
+        <v>2</v>
+      </c>
+      <c r="D514" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>566</v>
+      </c>
+      <c r="B515" t="s">
+        <v>9</v>
+      </c>
+      <c r="C515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>567</v>
+      </c>
+      <c r="B516" t="s">
+        <v>9</v>
+      </c>
+      <c r="C516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>568</v>
+      </c>
+      <c r="B517" t="s">
+        <v>9</v>
+      </c>
+      <c r="C517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>569</v>
+      </c>
+      <c r="B518" t="s">
+        <v>9</v>
+      </c>
+      <c r="C518">
+        <v>2</v>
+      </c>
+      <c r="D518" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>570</v>
+      </c>
+      <c r="B519" t="s">
+        <v>9</v>
+      </c>
+      <c r="C519">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>571</v>
+      </c>
+      <c r="B520" t="s">
+        <v>9</v>
+      </c>
+      <c r="C520">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>572</v>
+      </c>
+      <c r="B521" t="s">
+        <v>9</v>
+      </c>
+      <c r="C521">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>573</v>
+      </c>
+      <c r="B522" t="s">
+        <v>9</v>
+      </c>
+      <c r="C522">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>574</v>
+      </c>
+      <c r="B523" t="s">
+        <v>9</v>
+      </c>
+      <c r="C523">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>575</v>
+      </c>
+      <c r="B524" t="s">
+        <v>9</v>
+      </c>
+      <c r="C524">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>504</v>
+      </c>
+      <c r="B525" t="s">
+        <v>9</v>
+      </c>
+      <c r="C525">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>576</v>
+      </c>
+      <c r="B526" t="s">
+        <v>9</v>
+      </c>
+      <c r="C526">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>577</v>
+      </c>
+      <c r="B527" t="s">
+        <v>9</v>
+      </c>
+      <c r="C527">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>578</v>
+      </c>
+      <c r="B528" t="s">
+        <v>9</v>
+      </c>
+      <c r="C528">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>382</v>
+      </c>
+      <c r="B529" t="s">
+        <v>9</v>
+      </c>
+      <c r="C529">
+        <v>8</v>
+      </c>
+      <c r="D529" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>579</v>
+      </c>
+      <c r="B530" t="s">
+        <v>9</v>
+      </c>
+      <c r="C530">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>580</v>
+      </c>
+      <c r="B531" t="s">
+        <v>9</v>
+      </c>
+      <c r="C531">
+        <v>8</v>
+      </c>
+      <c r="D531" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>581</v>
+      </c>
+      <c r="B532" t="s">
+        <v>9</v>
+      </c>
+      <c r="C532">
+        <v>8</v>
+      </c>
+      <c r="D532" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>582</v>
+      </c>
+      <c r="B533" t="s">
+        <v>9</v>
+      </c>
+      <c r="C533">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>583</v>
+      </c>
+      <c r="B534" t="s">
+        <v>9</v>
+      </c>
+      <c r="C534">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>584</v>
+      </c>
+      <c r="B535" t="s">
+        <v>9</v>
+      </c>
+      <c r="C535">
+        <v>8</v>
+      </c>
+      <c r="D535" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>586</v>
+      </c>
+      <c r="B536" t="s">
+        <v>9</v>
+      </c>
+      <c r="C536">
+        <v>10</v>
+      </c>
+      <c r="D536" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>588</v>
+      </c>
+      <c r="B537" t="s">
+        <v>9</v>
+      </c>
+      <c r="C537">
+        <v>10</v>
+      </c>
+      <c r="D537" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>589</v>
+      </c>
+      <c r="B538" t="s">
+        <v>9</v>
+      </c>
+      <c r="C538">
+        <v>10</v>
+      </c>
+      <c r="D538" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>591</v>
+      </c>
+      <c r="B539" t="s">
+        <v>9</v>
+      </c>
+      <c r="C539">
+        <v>10</v>
+      </c>
+      <c r="D539" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>593</v>
+      </c>
+      <c r="B540" t="s">
+        <v>9</v>
+      </c>
+      <c r="C540">
+        <v>12</v>
+      </c>
+      <c r="D540" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>595</v>
+      </c>
+      <c r="B541" t="s">
+        <v>9</v>
+      </c>
+      <c r="C541">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>596</v>
+      </c>
+      <c r="B542" t="s">
+        <v>9</v>
+      </c>
+      <c r="C542">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>597</v>
+      </c>
+      <c r="B543" t="s">
+        <v>9</v>
+      </c>
+      <c r="C543">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>598</v>
+      </c>
+      <c r="B544" t="s">
+        <v>9</v>
+      </c>
+      <c r="C544">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>599</v>
+      </c>
+      <c r="B545" t="s">
+        <v>9</v>
+      </c>
+      <c r="C545">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>600</v>
+      </c>
+      <c r="B546" t="s">
+        <v>9</v>
+      </c>
+      <c r="C546">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>601</v>
+      </c>
+      <c r="B547" t="s">
+        <v>9</v>
+      </c>
+      <c r="C547">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>531</v>
+      </c>
+      <c r="B548" t="s">
+        <v>9</v>
+      </c>
+      <c r="C548">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>602</v>
+      </c>
+      <c r="B549" t="s">
+        <v>9</v>
+      </c>
+      <c r="C549">
+        <v>16</v>
+      </c>
+      <c r="D549" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>604</v>
+      </c>
+      <c r="B550" t="s">
+        <v>9</v>
+      </c>
+      <c r="C550">
+        <v>16</v>
+      </c>
+      <c r="D550" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>606</v>
+      </c>
+      <c r="B551" t="s">
+        <v>9</v>
+      </c>
+      <c r="C551">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>607</v>
+      </c>
+      <c r="B552" t="s">
+        <v>9</v>
+      </c>
+      <c r="C552">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>608</v>
+      </c>
+      <c r="B553" t="s">
+        <v>9</v>
+      </c>
+      <c r="C553">
+        <v>16</v>
+      </c>
+      <c r="D553" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>609</v>
+      </c>
+      <c r="B554" t="s">
+        <v>9</v>
+      </c>
+      <c r="C554">
+        <v>18</v>
+      </c>
+      <c r="D554" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>611</v>
+      </c>
+      <c r="B555" t="s">
+        <v>9</v>
+      </c>
+      <c r="C555">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>612</v>
+      </c>
+      <c r="B556" t="s">
+        <v>9</v>
+      </c>
+      <c r="C556">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>613</v>
+      </c>
+      <c r="B557" t="s">
+        <v>9</v>
+      </c>
+      <c r="C557">
+        <v>20</v>
+      </c>
+      <c r="D557" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>615</v>
+      </c>
+      <c r="B558" t="s">
+        <v>9</v>
+      </c>
+      <c r="C558">
+        <v>20</v>
+      </c>
+      <c r="D558" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>616</v>
+      </c>
+      <c r="B559" t="s">
+        <v>9</v>
+      </c>
+      <c r="C559">
+        <v>20</v>
+      </c>
+      <c r="D559" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>618</v>
+      </c>
+      <c r="B561" t="s">
+        <v>10</v>
+      </c>
+      <c r="C561" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>619</v>
+      </c>
+      <c r="B562" t="s">
+        <v>10</v>
+      </c>
+      <c r="C562" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>620</v>
+      </c>
+      <c r="B563" t="s">
+        <v>10</v>
+      </c>
+      <c r="C563" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>621</v>
+      </c>
+      <c r="B564" t="s">
+        <v>10</v>
+      </c>
+      <c r="C564" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>622</v>
+      </c>
+      <c r="B565" t="s">
+        <v>10</v>
+      </c>
+      <c r="C565" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>623</v>
+      </c>
+      <c r="B566" t="s">
+        <v>10</v>
+      </c>
+      <c r="C566" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>624</v>
+      </c>
+      <c r="B567" t="s">
+        <v>10</v>
+      </c>
+      <c r="C567" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>625</v>
+      </c>
+      <c r="B568" t="s">
+        <v>10</v>
+      </c>
+      <c r="C568" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>626</v>
+      </c>
+      <c r="B569" t="s">
+        <v>10</v>
+      </c>
+      <c r="C569" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>627</v>
+      </c>
+      <c r="B570" t="s">
+        <v>10</v>
+      </c>
+      <c r="C570" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>628</v>
+      </c>
+      <c r="B571" t="s">
+        <v>10</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>629</v>
+      </c>
+      <c r="B572" t="s">
+        <v>10</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>630</v>
+      </c>
+      <c r="B573" t="s">
+        <v>10</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>125</v>
+      </c>
+      <c r="B574" t="s">
+        <v>10</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>305</v>
+      </c>
+      <c r="B575" t="s">
+        <v>10</v>
+      </c>
+      <c r="C575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>127</v>
+      </c>
+      <c r="B576" t="s">
+        <v>10</v>
+      </c>
+      <c r="C576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>309</v>
+      </c>
+      <c r="B577" t="s">
+        <v>10</v>
+      </c>
+      <c r="C577">
+        <v>2</v>
+      </c>
+      <c r="D577" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>631</v>
+      </c>
+      <c r="B578" t="s">
+        <v>10</v>
+      </c>
+      <c r="C578">
+        <v>4</v>
+      </c>
+      <c r="D578" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>633</v>
+      </c>
+      <c r="B579" t="s">
+        <v>10</v>
+      </c>
+      <c r="C579">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>634</v>
+      </c>
+      <c r="B580" t="s">
+        <v>10</v>
+      </c>
+      <c r="C580">
+        <v>4</v>
+      </c>
+      <c r="D580" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>636</v>
+      </c>
+      <c r="B581" t="s">
+        <v>10</v>
+      </c>
+      <c r="C581">
+        <v>4</v>
+      </c>
+      <c r="D581" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>638</v>
+      </c>
+      <c r="B582" t="s">
+        <v>10</v>
+      </c>
+      <c r="C582">
+        <v>4</v>
+      </c>
+      <c r="D582" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>640</v>
+      </c>
+      <c r="B583" t="s">
+        <v>10</v>
+      </c>
+      <c r="C583">
+        <v>6</v>
+      </c>
+      <c r="D583" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>140</v>
+      </c>
+      <c r="B584" t="s">
+        <v>10</v>
+      </c>
+      <c r="C584">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>642</v>
+      </c>
+      <c r="B585" t="s">
+        <v>10</v>
+      </c>
+      <c r="C585">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>643</v>
+      </c>
+      <c r="B586" t="s">
+        <v>10</v>
+      </c>
+      <c r="C586">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>644</v>
+      </c>
+      <c r="B587" t="s">
+        <v>10</v>
+      </c>
+      <c r="C587">
+        <v>10</v>
+      </c>
+      <c r="D587" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>328</v>
+      </c>
+      <c r="B588" t="s">
+        <v>10</v>
+      </c>
+      <c r="C588">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>147</v>
+      </c>
+      <c r="B589" t="s">
+        <v>10</v>
+      </c>
+      <c r="C589">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>645</v>
+      </c>
+      <c r="B590" t="s">
+        <v>10</v>
+      </c>
+      <c r="C590">
+        <v>12</v>
+      </c>
+      <c r="D590" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>646</v>
+      </c>
+      <c r="B591" t="s">
+        <v>10</v>
+      </c>
+      <c r="C591">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>647</v>
+      </c>
+      <c r="B592" t="s">
+        <v>10</v>
+      </c>
+      <c r="C592">
+        <v>14</v>
+      </c>
+      <c r="D592" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>649</v>
+      </c>
+      <c r="B593" t="s">
+        <v>10</v>
+      </c>
+      <c r="C593">
+        <v>14</v>
+      </c>
+      <c r="D593" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>153</v>
+      </c>
+      <c r="B594" t="s">
+        <v>10</v>
+      </c>
+      <c r="C594">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>650</v>
+      </c>
+      <c r="B595" t="s">
+        <v>10</v>
+      </c>
+      <c r="C595">
+        <v>16</v>
+      </c>
+      <c r="D595" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>652</v>
+      </c>
+      <c r="B596" t="s">
+        <v>10</v>
+      </c>
+      <c r="C596">
+        <v>16</v>
+      </c>
+      <c r="D596" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>654</v>
+      </c>
+      <c r="B597" t="s">
+        <v>10</v>
+      </c>
+      <c r="C597">
+        <v>18</v>
+      </c>
+      <c r="D597" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>655</v>
+      </c>
+      <c r="B598" t="s">
+        <v>10</v>
+      </c>
+      <c r="C598">
+        <v>18</v>
+      </c>
+      <c r="D598" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>656</v>
+      </c>
+      <c r="B599" t="s">
+        <v>10</v>
+      </c>
+      <c r="C599">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>657</v>
+      </c>
+      <c r="B600" t="s">
+        <v>10</v>
+      </c>
+      <c r="C600">
+        <v>20</v>
+      </c>
+      <c r="D600" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>659</v>
+      </c>
+      <c r="B601" t="s">
+        <v>10</v>
+      </c>
+      <c r="C601">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>660</v>
+      </c>
+      <c r="B603" t="s">
+        <v>11</v>
+      </c>
+      <c r="C603" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>661</v>
+      </c>
+      <c r="B604" t="s">
+        <v>11</v>
+      </c>
+      <c r="C604" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>663</v>
+      </c>
+      <c r="B605" t="s">
+        <v>11</v>
+      </c>
+      <c r="C605" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>628</v>
+      </c>
+      <c r="B607" t="s">
+        <v>11</v>
+      </c>
+      <c r="C607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>664</v>
+      </c>
+      <c r="B608" t="s">
+        <v>11</v>
+      </c>
+      <c r="C608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>630</v>
+      </c>
+      <c r="B609" t="s">
+        <v>11</v>
+      </c>
+      <c r="C609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>665</v>
+      </c>
+      <c r="B610" t="s">
+        <v>11</v>
+      </c>
+      <c r="C610">
+        <v>1</v>
+      </c>
+      <c r="D610" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>125</v>
+      </c>
+      <c r="B611" t="s">
+        <v>11</v>
+      </c>
+      <c r="C611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>305</v>
+      </c>
+      <c r="B612" t="s">
+        <v>11</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>127</v>
+      </c>
+      <c r="B613" t="s">
+        <v>11</v>
+      </c>
+      <c r="C613">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>667</v>
+      </c>
+      <c r="B614" t="s">
+        <v>11</v>
+      </c>
+      <c r="C614">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>309</v>
+      </c>
+      <c r="B615" t="s">
+        <v>11</v>
+      </c>
+      <c r="C615">
+        <v>2</v>
+      </c>
+      <c r="D615" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>633</v>
+      </c>
+      <c r="B616" t="s">
+        <v>11</v>
+      </c>
+      <c r="C616">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>669</v>
+      </c>
+      <c r="B617" t="s">
+        <v>11</v>
+      </c>
+      <c r="C617">
+        <v>4</v>
+      </c>
+      <c r="D617" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>670</v>
+      </c>
+      <c r="B618" t="s">
+        <v>11</v>
+      </c>
+      <c r="C618">
+        <v>4</v>
+      </c>
+      <c r="D618" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>671</v>
+      </c>
+      <c r="B619" t="s">
+        <v>11</v>
+      </c>
+      <c r="C619">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>140</v>
+      </c>
+      <c r="B620" t="s">
+        <v>11</v>
+      </c>
+      <c r="C620">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>672</v>
+      </c>
+      <c r="B621" t="s">
+        <v>11</v>
+      </c>
+      <c r="C621">
+        <v>8</v>
+      </c>
+      <c r="D621" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>674</v>
+      </c>
+      <c r="B622" t="s">
+        <v>11</v>
+      </c>
+      <c r="C622">
+        <v>8</v>
+      </c>
+      <c r="D622" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>675</v>
+      </c>
+      <c r="B623" t="s">
+        <v>11</v>
+      </c>
+      <c r="C623">
+        <v>8</v>
+      </c>
+      <c r="D623" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>328</v>
+      </c>
+      <c r="B624" t="s">
+        <v>11</v>
+      </c>
+      <c r="C624">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>147</v>
+      </c>
+      <c r="B625" t="s">
+        <v>11</v>
+      </c>
+      <c r="C625">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>677</v>
+      </c>
+      <c r="B626" t="s">
+        <v>11</v>
+      </c>
+      <c r="C626">
+        <v>10</v>
+      </c>
+      <c r="D626" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>679</v>
+      </c>
+      <c r="B627" t="s">
+        <v>11</v>
+      </c>
+      <c r="C627">
+        <v>12</v>
+      </c>
+      <c r="D627" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>681</v>
+      </c>
+      <c r="B628" t="s">
+        <v>11</v>
+      </c>
+      <c r="C628">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>682</v>
+      </c>
+      <c r="B629" t="s">
+        <v>11</v>
+      </c>
+      <c r="C629">
+        <v>14</v>
+      </c>
+      <c r="D629" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>649</v>
+      </c>
+      <c r="B630" t="s">
+        <v>11</v>
+      </c>
+      <c r="C630">
+        <v>14</v>
+      </c>
+      <c r="D630" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>683</v>
+      </c>
+      <c r="B631" t="s">
+        <v>11</v>
+      </c>
+      <c r="C631">
+        <v>14</v>
+      </c>
+      <c r="D631" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>153</v>
+      </c>
+      <c r="B632" t="s">
+        <v>11</v>
+      </c>
+      <c r="C632">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>684</v>
+      </c>
+      <c r="B633" t="s">
+        <v>11</v>
+      </c>
+      <c r="C633">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>685</v>
+      </c>
+      <c r="B634" t="s">
+        <v>11</v>
+      </c>
+      <c r="C634">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>686</v>
+      </c>
+      <c r="B635" t="s">
+        <v>11</v>
+      </c>
+      <c r="C635">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>687</v>
+      </c>
+      <c r="B636" t="s">
+        <v>11</v>
+      </c>
+      <c r="C636">
+        <v>20</v>
+      </c>
+      <c r="D636" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>659</v>
+      </c>
+      <c r="B637" t="s">
+        <v>11</v>
+      </c>
+      <c r="C637">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>689</v>
+      </c>
+      <c r="B638" t="s">
+        <v>11</v>
+      </c>
+      <c r="C638">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
